--- a/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-AMB/v.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESAN000000/GESAN_SRL/WLEXT-AMB/v.2.0/report-checklist.xlsx
@@ -296,7 +296,7 @@
 Per questo caso di test è richiesta la  sola descrizione del comportamento a fronte di un timeout, da inserire nella colonna "J" nominata come "GESTIONE ERRORE".</t>
   </si>
   <si>
-    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto in una coda dalla quale l’operatore può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
+    <t>In caso di timeout con il gateway il processo clinico prosegue, il referto viene prodotto. Il documento viene aggiunto ad una coda dalla quale l’operatore di backoffice può effettuare nuovamente l’invio una volta che il gateway torna disponibile.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT1</t>
@@ -2870,7 +2870,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="95" customHeight="1">
+    <row r="12" ht="108" customHeight="1">
       <c r="A12" s="31">
         <v>48</v>
       </c>
@@ -3131,7 +3131,9 @@
       <c r="N17" t="s" s="35">
         <v>65</v>
       </c>
-      <c r="O17" s="50"/>
+      <c r="O17" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P17" t="s" s="43">
         <v>66</v>
       </c>
@@ -3183,7 +3185,9 @@
       <c r="N18" t="s" s="35">
         <v>71</v>
       </c>
-      <c r="O18" s="50"/>
+      <c r="O18" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P18" t="s" s="54">
         <v>72</v>
       </c>
@@ -3235,7 +3239,9 @@
       <c r="N19" t="s" s="35">
         <v>77</v>
       </c>
-      <c r="O19" s="50"/>
+      <c r="O19" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P19" t="s" s="43">
         <v>78</v>
       </c>
@@ -3287,7 +3293,9 @@
       <c r="N20" t="s" s="35">
         <v>83</v>
       </c>
-      <c r="O20" s="50"/>
+      <c r="O20" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P20" t="s" s="54">
         <v>84</v>
       </c>
@@ -3339,7 +3347,9 @@
       <c r="N21" t="s" s="35">
         <v>89</v>
       </c>
-      <c r="O21" s="50"/>
+      <c r="O21" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P21" t="s" s="35">
         <v>90</v>
       </c>
@@ -3391,7 +3401,9 @@
       <c r="N22" t="s" s="35">
         <v>95</v>
       </c>
-      <c r="O22" s="50"/>
+      <c r="O22" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P22" t="s" s="35">
         <v>96</v>
       </c>
@@ -3443,7 +3455,9 @@
       <c r="N23" t="s" s="35">
         <v>101</v>
       </c>
-      <c r="O23" s="50"/>
+      <c r="O23" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P23" t="s" s="35">
         <v>102</v>
       </c>
@@ -3495,7 +3509,9 @@
       <c r="N24" t="s" s="35">
         <v>95</v>
       </c>
-      <c r="O24" s="50"/>
+      <c r="O24" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P24" t="s" s="35">
         <v>96</v>
       </c>
@@ -3547,7 +3563,9 @@
       <c r="N25" t="s" s="35">
         <v>95</v>
       </c>
-      <c r="O25" s="50"/>
+      <c r="O25" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P25" t="s" s="43">
         <v>96</v>
       </c>
@@ -3599,7 +3617,9 @@
       <c r="N26" t="s" s="35">
         <v>115</v>
       </c>
-      <c r="O26" s="50"/>
+      <c r="O26" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P26" t="s" s="54">
         <v>116</v>
       </c>
@@ -3651,7 +3671,9 @@
       <c r="N27" t="s" s="35">
         <v>121</v>
       </c>
-      <c r="O27" s="50"/>
+      <c r="O27" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P27" t="s" s="35">
         <v>96</v>
       </c>
@@ -3703,7 +3725,9 @@
       <c r="N28" t="s" s="35">
         <v>95</v>
       </c>
-      <c r="O28" s="50"/>
+      <c r="O28" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P28" t="s" s="35">
         <v>96</v>
       </c>
@@ -3755,7 +3779,9 @@
       <c r="N29" t="s" s="35">
         <v>115</v>
       </c>
-      <c r="O29" s="50"/>
+      <c r="O29" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P29" t="s" s="43">
         <v>116</v>
       </c>
@@ -3807,7 +3833,9 @@
       <c r="N30" t="s" s="35">
         <v>134</v>
       </c>
-      <c r="O30" s="50"/>
+      <c r="O30" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P30" t="s" s="54">
         <v>135</v>
       </c>
@@ -3859,7 +3887,9 @@
       <c r="N31" t="s" s="35">
         <v>140</v>
       </c>
-      <c r="O31" s="50"/>
+      <c r="O31" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P31" t="s" s="35">
         <v>135</v>
       </c>
@@ -3911,7 +3941,9 @@
       <c r="N32" t="s" s="35">
         <v>145</v>
       </c>
-      <c r="O32" s="50"/>
+      <c r="O32" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P32" t="s" s="35">
         <v>146</v>
       </c>
@@ -3963,7 +3995,9 @@
       <c r="N33" t="s" s="35">
         <v>134</v>
       </c>
-      <c r="O33" s="50"/>
+      <c r="O33" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P33" t="s" s="35">
         <v>135</v>
       </c>
@@ -4015,7 +4049,9 @@
       <c r="N34" t="s" s="35">
         <v>155</v>
       </c>
-      <c r="O34" s="50"/>
+      <c r="O34" t="s" s="35">
+        <v>30</v>
+      </c>
       <c r="P34" t="s" s="35">
         <v>156</v>
       </c>
@@ -4067,7 +4103,9 @@
       <c r="N35" t="s" s="43">
         <v>161</v>
       </c>
-      <c r="O35" s="60"/>
+      <c r="O35" t="s" s="43">
+        <v>30</v>
+      </c>
       <c r="P35" t="s" s="43">
         <v>162</v>
       </c>
